--- a/exceldata/RegistrationDetails.xlsx
+++ b/exceldata/RegistrationDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E37B0C2A-45F3-456F-ADC6-D51877FA47DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58763693-1DB0-43F3-A3EC-84F76E07C5F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>First Name</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>vipin.60@gmail.com</t>
+  </si>
+  <si>
+    <t>invalidEmail Id</t>
+  </si>
+  <si>
+    <t>vert@new.com</t>
+  </si>
+  <si>
+    <t>invalidPassword</t>
+  </si>
+  <si>
+    <t>new123</t>
   </si>
 </sst>
 </file>
@@ -94,11 +106,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,11 +453,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{FD157905-E869-4841-9210-BDA02074AAE1}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{82F5E215-754B-496B-802E-154D22F466D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/exceldata/RegistrationDetails.xlsx
+++ b/exceldata/RegistrationDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58763693-1DB0-43F3-A3EC-84F76E07C5F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B33039-FBDF-435B-A70E-CF3E796AD9F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>invalidEmail Id</t>
   </si>
   <si>
-    <t>vert@new.com</t>
-  </si>
-  <si>
     <t>invalidPassword</t>
   </si>
   <si>
     <t>new123</t>
+  </si>
+  <si>
+    <t>ve2rt@new.com</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,15 +458,15 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/RegistrationDetails.xlsx
+++ b/exceldata/RegistrationDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B33039-FBDF-435B-A70E-CF3E796AD9F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4052E3E-4F70-4DB8-91B5-862033147254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>new123</t>
   </si>
   <si>
-    <t>ve2rt@new.com</t>
+    <t>moass@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/exceldata/RegistrationDetails.xlsx
+++ b/exceldata/RegistrationDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4052E3E-4F70-4DB8-91B5-862033147254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF3419D-EF49-4451-A72C-42528A0EBBAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>new123</t>
   </si>
   <si>
-    <t>moass@gmail.com</t>
+    <t>moaddss@gmail.com</t>
   </si>
 </sst>
 </file>
